--- a/TechLab Voorraad 4-3-2019.xlsx
+++ b/TechLab Voorraad 4-3-2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bramg\Hogeschool Rotterdam\Ricardo Stam - Techlab algemeen gedeeld\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ses-9\OneDrive\Bureaublad\OP3\PROJECT-B\TC1819_1B_Groep_5\TC1819_1B_Groep_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="15" documentId="14_{C6D3A682-2FC4-4B31-8AA3-6AD24AC60D0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{0DB8ADCF-3889-498F-88DB-CEC573BD1B04}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12165" xr2:uid="{50699BE7-1C76-8A41-B406-D92EB6F4EA30}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12168" activeTab="1" xr2:uid="{50699BE7-1C76-8A41-B406-D92EB6F4EA30}"/>
   </bookViews>
   <sheets>
     <sheet name="Electronics" sheetId="7" r:id="rId1"/>
@@ -618,7 +618,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -662,7 +662,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -960,22 +960,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1250A6F4-1AFC-4B44-962C-3AA96429A94B}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>161</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>162</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>165</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -1685,20 +1685,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3B2470-90ED-40DB-B7FA-A06D85C28116}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" customWidth="1"/>
     <col min="3" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.19921875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>127</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>141</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>145</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>148</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="78" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>152</v>
       </c>
